--- a/biology/Médecine/Robert_Darwin/Robert_Darwin.xlsx
+++ b/biology/Médecine/Robert_Darwin/Robert_Darwin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Robert Waring Darwin, membre de la Royal Society (30 mai 1766 - 13 novembre 1848) est un médecin établi à Shrewsbury et aujourd'hui plus connu comme étant le père du naturaliste Charles Darwin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Darwin est né en 1766, fils d'Erasmus Darwin et de sa première épouse Mary Howard. Son prénom est choisi en l'honneur de son oncle Robert Waring Darwin d'Elston (1724-1816), un célibataire. Sa mère meurt en 1770 et Mary Parker, la gouvernante engagée pour s'occuper de lui, devient la maîtresse de son père et lui donne deux filles illégitimes. 
 Darwin étudie la médecine à l'université de Leyde, et obtient son doctorat en médecine à l'université d'Édimbourg en 1786, alors qu'il n'est âgé que de 20 ans. A Édimbourg il étudie avec différents professeurs, et notamment le naturaliste John Walker. Il en retire une telle expérience qu'il enverra son fils Charles y étudier. C'était un homme particulièrement imposant, de grande taille, près de 1,89 mètre pour 150 kg (24 stones).
@@ -522,7 +536,7 @@
 Erasmus Alvey Darwin (1804-1881)
 Charles Robert Darwin (1809-1882)
 Emily Catherine Darwin (1810-1866)
-Il s’oppose d’abord à son fils et à ce voyage de deux ans à bord du Beagle qu’il considère comme une perte de temps, mais il est finalement convaincu par son beau-frère, Josiah Wedgwood II, et finit par donner son accord à la participation de son fils[1].
+Il s’oppose d’abord à son fils et à ce voyage de deux ans à bord du Beagle qu’il considère comme une perte de temps, mais il est finalement convaincu par son beau-frère, Josiah Wedgwood II, et finit par donner son accord à la participation de son fils.
 Il est promu Fellow of the Royal Society le 21 février 1788.
 </t>
         </is>
